--- a/data/0METADATA_DRON.xlsx
+++ b/data/0METADATA_DRON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/Documents/PYTHON/11_DRONE_METADATA/0data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/Documents/PYTHON/11_DRONE_METADATA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C9EAD-EEB2-4C47-9054-7A9D5029171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2D4321-ED01-DB48-8F76-6E34A17093B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="176">
   <si>
     <t>eventID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>license</t>
   </si>
   <si>
-    <t>associatedMedia</t>
-  </si>
-  <si>
     <t>DRONE</t>
   </si>
   <si>
@@ -551,133 +548,13 @@
   </si>
   <si>
     <t>2024-05-28T15:59:00</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20230925_0907_CATGRASS_RUSTELLA_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20230925_0951_CATGRASS_MONTJOI_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20230925_1100_CATGRASS_PELOSA_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20230925_1412_CATGRASS_JUGADORA_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240124_0912_RIBADESELLA_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240124_1214_TINA_MAYOR_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240212_1124_VILLAVICIOSA_ENCIENONA_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240212_1240_VILLAVICIOSA_MISIEGO_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240216_1406_NIEMBRO1_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240216_1432_NIEMBRO_ZOOM_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240216_1540_COBIJERO_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240216_1636_NIEMBRO2_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240315_1233_VILLAVICIOSA_BORNIZAL_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240405_1016_VILLAVICIOSA_BORNIZAL2_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240410_1124_VILLAVICIOSA_IZQ1_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240411_1246_VILLAVICIOSA_BORNIZAL3_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240411_1332_VILLAVICIOSA_MOLINO1_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240411_1408_VILLAVICIOSA_MOLINO2_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240412_1304_VILLAVICIOSA_IZQ2_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240412_1418_VILLAVICIOSA_IZQ3_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240412_1507_VILLAVICIOSA_IZQ4_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240507_0946_VILLAVICIOSA_DCHA_REMATE1_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240507_1029_VILLAVICIOSA_DCHA_REMATE3_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240507_1054_VILLAVICIOSA_DCHA_REMATE2_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240516_0758_NORGRASS_SANTOÑA_REGATON_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240516_1719_NORGRASS_SANTOÑA_ARENILLA_1ZOSREF_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240516_1815_NORGRASS_SANTOÑA_ARENILLA_2NANOREF_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240517_0900_NORGRASS_SANTOÑA_SOLLAGUA_3NANOREF_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240518_0907_NORGRASS_SANTOÑA_REGATON_4NANOPRES_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240520_1045_NORGRASS_VILLAVICIOSA_ALBATROS_5NANOREF_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240523_1125_NORGRASS_EO_LINIERA_6NANOREF12m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240523_1149_NORGRASS_EO_LINIERA_6NANOREF120m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240525_1116_NORGRASS_ORTIGUEIRA_FIGUEIROA_7NANO20m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240525_1143_NORGRASS_ORTIGUEIRA_FIGUEIROA_7NANO120m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240526_1036_NORGRASS_ORTIGUEIRA_SISMUNDI_8ZOSREF12m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240526_1142_NORGRASS_ORTIGUEIRA_SISMUNDI_8ZOSREF120m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240526_1255_NORGRASS_BARQUEIRO_CREIXIMIL_9NANOREF12m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240526_1329_NORGRASS_BARQUEIRO_CREIXIMIL_9NANOREF100m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240527_1450_NORGRASS_BARQUEIRO_PUERTOVICEDO_12NANOPRES100m_lowres_image.jpg</t>
-  </si>
-  <si>
-    <t>https://filedn.eu/lxdSetOgU6G8FNMH4dxBDJQ/associatedMedia/drone/20240528_1559_NORGRASS_BARQUEIRO_PUERTOVICEDO_12NANOPRES20m_lowres_image.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,14 +567,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -732,19 +601,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1045,19 +911,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="105.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,25 +1001,22 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
       <c r="F2">
         <v>42.242961229386999</v>
@@ -1163,40 +1025,40 @@
         <v>3.2273395437900199</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>212</v>
+      </c>
+      <c r="O2">
+        <v>87.9</v>
+      </c>
+      <c r="P2">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="Q2">
+        <v>3.28</v>
+      </c>
+      <c r="S2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="T2" t="s">
         <v>37</v>
-      </c>
-      <c r="O2">
-        <v>212</v>
-      </c>
-      <c r="P2">
-        <v>87.9</v>
-      </c>
-      <c r="Q2">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="R2">
-        <v>3.28</v>
-      </c>
-      <c r="T2">
-        <v>2.0699999999999998</v>
       </c>
       <c r="U2" t="s">
         <v>38</v>
@@ -1216,25 +1078,22 @@
       <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
       <c r="F3">
         <v>42.249427118457099</v>
@@ -1243,40 +1102,40 @@
         <v>3.2294563124233302</v>
       </c>
       <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>306</v>
+      </c>
+      <c r="O3">
+        <v>106</v>
+      </c>
+      <c r="P3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>3.31</v>
+      </c>
+      <c r="S3">
+        <v>2.48</v>
+      </c>
+      <c r="T3" t="s">
         <v>37</v>
-      </c>
-      <c r="O3">
-        <v>306</v>
-      </c>
-      <c r="P3">
-        <v>106</v>
-      </c>
-      <c r="Q3">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="R3">
-        <v>3.31</v>
-      </c>
-      <c r="T3">
-        <v>2.48</v>
       </c>
       <c r="U3" t="s">
         <v>38</v>
@@ -1296,25 +1155,22 @@
       <c r="Z3" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
       <c r="F4">
         <v>42.249764846031397</v>
@@ -1323,40 +1179,40 @@
         <v>3.24047399672674</v>
       </c>
       <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
       <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>221</v>
+      </c>
+      <c r="O4">
+        <v>101</v>
+      </c>
+      <c r="P4">
+        <v>9.35E-2</v>
+      </c>
+      <c r="Q4">
+        <v>4.54</v>
+      </c>
+      <c r="S4">
+        <v>2.38</v>
+      </c>
+      <c r="T4" t="s">
         <v>37</v>
-      </c>
-      <c r="O4">
-        <v>221</v>
-      </c>
-      <c r="P4">
-        <v>101</v>
-      </c>
-      <c r="Q4">
-        <v>9.35E-2</v>
-      </c>
-      <c r="R4">
-        <v>4.54</v>
-      </c>
-      <c r="T4">
-        <v>2.38</v>
       </c>
       <c r="U4" t="s">
         <v>38</v>
@@ -1376,25 +1232,22 @@
       <c r="Z4" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
       </c>
       <c r="F5">
         <v>42.3165079111184</v>
@@ -1403,40 +1256,40 @@
         <v>3.3126774783669402</v>
       </c>
       <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>244</v>
+      </c>
+      <c r="O5">
+        <v>82.5</v>
+      </c>
+      <c r="P5">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="Q5">
+        <v>2.33</v>
+      </c>
+      <c r="S5">
+        <v>1.94</v>
+      </c>
+      <c r="T5" t="s">
         <v>37</v>
-      </c>
-      <c r="O5">
-        <v>244</v>
-      </c>
-      <c r="P5">
-        <v>82.5</v>
-      </c>
-      <c r="Q5">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="R5">
-        <v>2.33</v>
-      </c>
-      <c r="T5">
-        <v>1.94</v>
       </c>
       <c r="U5" t="s">
         <v>38</v>
@@ -1456,25 +1309,22 @@
       <c r="Z5" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
       </c>
       <c r="F6">
         <v>43.458248264863997</v>
@@ -1483,81 +1333,78 @@
         <v>-5.0638373686094802</v>
       </c>
       <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="M6" t="s">
         <v>59</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>5970</v>
+      </c>
+      <c r="O6">
+        <v>92.5</v>
+      </c>
+      <c r="P6">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.25</v>
+      </c>
+      <c r="R6">
+        <v>71</v>
+      </c>
+      <c r="S6">
+        <v>2.48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
         <v>60</v>
       </c>
-      <c r="O6">
-        <v>5970</v>
-      </c>
-      <c r="P6">
-        <v>92.5</v>
-      </c>
-      <c r="Q6">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="R6">
-        <v>0.25</v>
-      </c>
-      <c r="S6">
-        <v>71</v>
-      </c>
-      <c r="T6">
-        <v>2.48</v>
-      </c>
-      <c r="U6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" t="s">
-        <v>40</v>
-      </c>
       <c r="Y6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
       </c>
       <c r="F7">
         <v>43.384662727310598</v>
@@ -1566,81 +1413,78 @@
         <v>-4.5123172298179197</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
       <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>182</v>
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
       </c>
       <c r="M7" t="s">
         <v>59</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>2230</v>
+      </c>
+      <c r="O7">
+        <v>83</v>
+      </c>
+      <c r="P7">
+        <v>0.12</v>
+      </c>
+      <c r="Q7">
+        <v>0.247</v>
+      </c>
+      <c r="R7">
+        <v>31</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
         <v>60</v>
       </c>
-      <c r="O7">
-        <v>2230</v>
-      </c>
-      <c r="P7">
-        <v>83</v>
-      </c>
-      <c r="Q7">
-        <v>0.12</v>
-      </c>
-      <c r="R7">
-        <v>0.247</v>
-      </c>
-      <c r="S7">
-        <v>31</v>
-      </c>
-      <c r="T7">
-        <v>1.8</v>
-      </c>
-      <c r="U7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" t="s">
-        <v>40</v>
-      </c>
       <c r="Y7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
       </c>
       <c r="F8">
         <v>43.513093712654801</v>
@@ -1649,81 +1493,78 @@
         <v>-5.3843911724636602</v>
       </c>
       <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
       <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>183</v>
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
       </c>
       <c r="M8" t="s">
         <v>59</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>3430</v>
+      </c>
+      <c r="O8">
+        <v>44.8</v>
+      </c>
+      <c r="P8">
+        <v>6.5862000000000004E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="R8">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>1.22</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" t="s">
         <v>60</v>
       </c>
-      <c r="O8">
-        <v>3430</v>
-      </c>
-      <c r="P8">
-        <v>44.8</v>
-      </c>
-      <c r="Q8">
-        <v>6.5862000000000004E-2</v>
-      </c>
-      <c r="R8">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="S8">
-        <v>23</v>
-      </c>
-      <c r="T8">
-        <v>1.22</v>
-      </c>
-      <c r="U8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" t="s">
-        <v>40</v>
-      </c>
       <c r="Y8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>43.524783315237997</v>
@@ -1732,81 +1573,78 @@
         <v>-5.38128701718255</v>
       </c>
       <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
       <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>184</v>
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>1229</v>
+      </c>
+      <c r="O9">
+        <v>45.7</v>
+      </c>
+      <c r="P9">
+        <v>0.111</v>
+      </c>
+      <c r="Q9">
+        <v>0.308</v>
+      </c>
+      <c r="R9">
+        <v>25</v>
+      </c>
+      <c r="S9">
+        <v>1.22</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" t="s">
         <v>60</v>
       </c>
-      <c r="O9">
-        <v>1229</v>
-      </c>
-      <c r="P9">
-        <v>45.7</v>
-      </c>
-      <c r="Q9">
-        <v>0.111</v>
-      </c>
-      <c r="R9">
-        <v>0.308</v>
-      </c>
-      <c r="S9">
-        <v>25</v>
-      </c>
-      <c r="T9">
-        <v>1.22</v>
-      </c>
-      <c r="U9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" t="s">
-        <v>40</v>
-      </c>
       <c r="Y9" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
       </c>
       <c r="F10">
         <v>43.433737009900199</v>
@@ -1815,78 +1653,75 @@
         <v>-4.8345613211630996</v>
       </c>
       <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
       <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>185</v>
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <v>422</v>
+      </c>
+      <c r="O10">
+        <v>46.1</v>
+      </c>
+      <c r="P10">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S10">
+        <v>1.24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" t="s">
         <v>60</v>
       </c>
-      <c r="O10">
-        <v>422</v>
-      </c>
-      <c r="P10">
-        <v>46.1</v>
-      </c>
-      <c r="Q10">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="R10">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="T10">
-        <v>1.24</v>
-      </c>
-      <c r="U10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" t="s">
-        <v>40</v>
-      </c>
       <c r="Y10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>43.434173202733298</v>
@@ -1895,81 +1730,78 @@
         <v>-4.8329391676358799</v>
       </c>
       <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
       <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>186</v>
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>1635</v>
+      </c>
+      <c r="O11">
+        <v>17.7</v>
+      </c>
+      <c r="P11">
+        <v>4.28E-3</v>
+      </c>
+      <c r="Q11">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
         <v>60</v>
       </c>
-      <c r="O11">
-        <v>1635</v>
-      </c>
-      <c r="P11">
-        <v>17.7</v>
-      </c>
-      <c r="Q11">
-        <v>4.28E-3</v>
-      </c>
-      <c r="R11">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="S11">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="U11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" t="s">
-        <v>40</v>
-      </c>
       <c r="Y11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
       </c>
       <c r="F12">
         <v>43.396053001293197</v>
@@ -1978,81 +1810,78 @@
         <v>-4.6117341227206801</v>
       </c>
       <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
       <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
       </c>
       <c r="M12" t="s">
         <v>59</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12">
+        <v>2925</v>
+      </c>
+      <c r="O12">
+        <v>45.9</v>
+      </c>
+      <c r="P12">
+        <v>4.7525999999999999E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>1.24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
         <v>60</v>
       </c>
-      <c r="O12">
-        <v>2925</v>
-      </c>
-      <c r="P12">
-        <v>45.9</v>
-      </c>
-      <c r="Q12">
-        <v>4.7525999999999999E-2</v>
-      </c>
-      <c r="R12">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="S12">
-        <v>25</v>
-      </c>
-      <c r="T12">
-        <v>1.24</v>
-      </c>
-      <c r="U12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" t="s">
-        <v>40</v>
-      </c>
       <c r="Y12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s">
         <v>43</v>
       </c>
-      <c r="AA12" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>43.434993118817701</v>
@@ -2061,81 +1890,78 @@
         <v>-4.8353968567567804</v>
       </c>
       <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
         <v>85</v>
       </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>86</v>
-      </c>
       <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>188</v>
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <v>163</v>
       </c>
       <c r="O13">
-        <v>163</v>
+        <v>46.9</v>
       </c>
       <c r="P13">
-        <v>46.9</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="Q13">
-        <v>3.5499999999999997E-2</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="R13">
-        <v>0.80700000000000005</v>
+        <v>15</v>
       </c>
       <c r="S13">
-        <v>15</v>
-      </c>
-      <c r="T13">
         <v>1.23</v>
       </c>
+      <c r="T13" t="s">
+        <v>38</v>
+      </c>
       <c r="U13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s">
         <v>39</v>
       </c>
       <c r="W13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>43.523270379864599</v>
@@ -2144,81 +1970,78 @@
         <v>-5.3840309169518097</v>
       </c>
       <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
         <v>88</v>
       </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>89</v>
-      </c>
       <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>189</v>
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
       </c>
       <c r="M14" t="s">
         <v>59</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14">
+        <v>2585</v>
+      </c>
+      <c r="O14">
+        <v>48.4</v>
+      </c>
+      <c r="P14">
+        <v>5.4877000000000002E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.23</v>
+      </c>
+      <c r="R14">
+        <v>18</v>
+      </c>
+      <c r="S14">
+        <v>1.32</v>
+      </c>
+      <c r="T14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s">
         <v>60</v>
       </c>
-      <c r="O14">
-        <v>2585</v>
-      </c>
-      <c r="P14">
-        <v>48.4</v>
-      </c>
-      <c r="Q14">
-        <v>5.4877000000000002E-2</v>
-      </c>
-      <c r="R14">
-        <v>0.23</v>
-      </c>
-      <c r="S14">
-        <v>18</v>
-      </c>
-      <c r="T14">
-        <v>1.32</v>
-      </c>
-      <c r="U14" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" t="s">
-        <v>38</v>
-      </c>
-      <c r="W14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X14" t="s">
-        <v>40</v>
-      </c>
       <c r="Y14" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z14" t="s">
         <v>43</v>
       </c>
-      <c r="AA14" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>43.5194007524181</v>
@@ -2227,81 +2050,78 @@
         <v>-5.3857666357548997</v>
       </c>
       <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
         <v>91</v>
       </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>92</v>
-      </c>
       <c r="K15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
       </c>
       <c r="M15" t="s">
         <v>59</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15">
+        <v>3720</v>
+      </c>
+      <c r="O15">
+        <v>57</v>
+      </c>
+      <c r="P15">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>0.308</v>
+      </c>
+      <c r="R15">
+        <v>30</v>
+      </c>
+      <c r="S15">
+        <v>1.92</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" t="s">
         <v>60</v>
       </c>
-      <c r="O15">
-        <v>3720</v>
-      </c>
-      <c r="P15">
-        <v>57</v>
-      </c>
-      <c r="Q15">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="R15">
-        <v>0.308</v>
-      </c>
-      <c r="S15">
-        <v>30</v>
-      </c>
-      <c r="T15">
-        <v>1.92</v>
-      </c>
-      <c r="U15" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" t="s">
-        <v>40</v>
-      </c>
       <c r="Y15" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>43.503717443857603</v>
@@ -2310,81 +2130,78 @@
         <v>-5.4228774392088503</v>
       </c>
       <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s">
-        <v>95</v>
-      </c>
       <c r="K16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>191</v>
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N16">
+        <v>1648</v>
       </c>
       <c r="O16">
-        <v>1648</v>
+        <v>40.1</v>
       </c>
       <c r="P16">
-        <v>40.1</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="Q16">
-        <v>0.24399999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="R16">
-        <v>0.35599999999999998</v>
+        <v>19</v>
       </c>
       <c r="S16">
-        <v>19</v>
-      </c>
-      <c r="T16">
         <v>1.08</v>
       </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s">
         <v>39</v>
       </c>
       <c r="W16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="s">
         <v>43</v>
       </c>
-      <c r="AA16" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>43.514891402549203</v>
@@ -2393,81 +2210,78 @@
         <v>-5.3913869277144899</v>
       </c>
       <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
         <v>97</v>
       </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>98</v>
-      </c>
       <c r="K17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>192</v>
+        <v>34</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>1509</v>
+      </c>
+      <c r="O17">
+        <v>64.7</v>
+      </c>
+      <c r="P17">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="R17">
+        <v>27</v>
+      </c>
+      <c r="S17">
+        <v>1.74</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s">
         <v>37</v>
       </c>
-      <c r="O17">
-        <v>1509</v>
-      </c>
-      <c r="P17">
-        <v>64.7</v>
-      </c>
-      <c r="Q17">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="R17">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="S17">
-        <v>27</v>
-      </c>
-      <c r="T17">
-        <v>1.74</v>
-      </c>
-      <c r="U17" t="s">
-        <v>39</v>
-      </c>
       <c r="V17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z17" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>43.509361517338199</v>
@@ -2476,81 +2290,78 @@
         <v>-5.4048557942783297</v>
       </c>
       <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>101</v>
-      </c>
       <c r="K18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>193</v>
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>1775</v>
+      </c>
+      <c r="O18">
+        <v>45.2</v>
+      </c>
+      <c r="P18">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="R18">
+        <v>28</v>
+      </c>
+      <c r="S18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s">
         <v>37</v>
       </c>
-      <c r="O18">
-        <v>1775</v>
-      </c>
-      <c r="P18">
-        <v>45.2</v>
-      </c>
-      <c r="Q18">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="R18">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="S18">
-        <v>28</v>
-      </c>
-      <c r="T18">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="U18" t="s">
-        <v>39</v>
-      </c>
       <c r="V18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y18" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>43.506580933435401</v>
@@ -2559,81 +2370,78 @@
         <v>-5.4162426144645996</v>
       </c>
       <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
         <v>103</v>
       </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>104</v>
-      </c>
       <c r="K19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>194</v>
+        <v>34</v>
+      </c>
+      <c r="L19" t="s">
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19">
+        <v>1716</v>
+      </c>
+      <c r="O19">
+        <v>59.7</v>
+      </c>
+      <c r="P19">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R19">
+        <v>30</v>
+      </c>
+      <c r="S19">
+        <v>1.61</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" t="s">
         <v>37</v>
       </c>
-      <c r="O19">
-        <v>1716</v>
-      </c>
-      <c r="P19">
-        <v>59.7</v>
-      </c>
-      <c r="Q19">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="R19">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="S19">
-        <v>30</v>
-      </c>
-      <c r="T19">
-        <v>1.61</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
       <c r="V19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s">
         <v>43</v>
       </c>
-      <c r="AA19" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>43.514349029946899</v>
@@ -2642,81 +2450,78 @@
         <v>-5.4049936421013003</v>
       </c>
       <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
         <v>106</v>
       </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
-      </c>
       <c r="K20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>195</v>
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N20">
+        <v>2654</v>
       </c>
       <c r="O20">
-        <v>2654</v>
+        <v>59.9</v>
       </c>
       <c r="P20">
-        <v>59.9</v>
+        <v>0.74</v>
       </c>
       <c r="Q20">
-        <v>0.74</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="R20">
-        <v>0.35499999999999998</v>
+        <v>36</v>
       </c>
       <c r="S20">
-        <v>36</v>
-      </c>
-      <c r="T20">
         <v>1.61</v>
       </c>
+      <c r="T20" t="s">
+        <v>38</v>
+      </c>
       <c r="U20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s">
         <v>39</v>
       </c>
       <c r="W20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>43.521491628930796</v>
@@ -2725,81 +2530,78 @@
         <v>-5.3946647505433099</v>
       </c>
       <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
         <v>109</v>
       </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>110</v>
-      </c>
       <c r="K21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>196</v>
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>1826</v>
       </c>
       <c r="O21">
-        <v>1826</v>
+        <v>61.3</v>
       </c>
       <c r="P21">
-        <v>61.3</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="Q21">
-        <v>0.52400000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="R21">
-        <v>0.441</v>
+        <v>25</v>
       </c>
       <c r="S21">
-        <v>25</v>
-      </c>
-      <c r="T21">
         <v>1.65</v>
       </c>
+      <c r="T21" t="s">
+        <v>38</v>
+      </c>
       <c r="U21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s">
         <v>39</v>
       </c>
       <c r="W21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>43.532895054012997</v>
@@ -2808,81 +2610,78 @@
         <v>-5.3884896487231897</v>
       </c>
       <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
         <v>112</v>
       </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" t="s">
-        <v>113</v>
-      </c>
       <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>1094</v>
       </c>
       <c r="O22">
-        <v>1094</v>
+        <v>42.2</v>
       </c>
       <c r="P22">
-        <v>42.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q22">
-        <v>0.16500000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="R22">
-        <v>0.35499999999999998</v>
+        <v>13</v>
       </c>
       <c r="S22">
-        <v>13</v>
-      </c>
-      <c r="T22">
         <v>1.1299999999999999</v>
       </c>
+      <c r="T22" t="s">
+        <v>38</v>
+      </c>
       <c r="U22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s">
         <v>39</v>
       </c>
       <c r="W22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>43.512520764698699</v>
@@ -2891,81 +2690,78 @@
         <v>-5.4009372418816497</v>
       </c>
       <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
         <v>115</v>
       </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" t="s">
-        <v>116</v>
-      </c>
       <c r="K23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>198</v>
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
+        <v>58</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>513</v>
       </c>
       <c r="O23">
-        <v>513</v>
+        <v>44.9</v>
       </c>
       <c r="P23">
-        <v>44.9</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="Q23">
-        <v>9.7699999999999995E-2</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="R23">
-        <v>0.35199999999999998</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>6</v>
-      </c>
-      <c r="T23">
         <v>1.21</v>
       </c>
+      <c r="T23" t="s">
+        <v>38</v>
+      </c>
       <c r="U23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s">
         <v>39</v>
       </c>
       <c r="W23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s">
         <v>43</v>
       </c>
-      <c r="AA23" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>43.518147439675303</v>
@@ -2974,81 +2770,78 @@
         <v>-5.3825743426355501</v>
       </c>
       <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
         <v>118</v>
       </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" t="s">
-        <v>119</v>
-      </c>
       <c r="K24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>586</v>
+      </c>
+      <c r="O24">
+        <v>51.2</v>
+      </c>
+      <c r="P24">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="R24">
+        <v>32</v>
+      </c>
+      <c r="S24">
+        <v>1.37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s">
         <v>37</v>
       </c>
-      <c r="O24">
-        <v>586</v>
-      </c>
-      <c r="P24">
-        <v>51.2</v>
-      </c>
-      <c r="Q24">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="R24">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S24">
-        <v>32</v>
-      </c>
-      <c r="T24">
-        <v>1.37</v>
-      </c>
-      <c r="U24" t="s">
-        <v>39</v>
-      </c>
       <c r="V24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X24" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y24" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>43.522282170161297</v>
@@ -3057,81 +2850,78 @@
         <v>-5.3868113029432898</v>
       </c>
       <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
         <v>121</v>
       </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>122</v>
-      </c>
       <c r="K25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>200</v>
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>2111</v>
       </c>
       <c r="O25">
-        <v>2111</v>
+        <v>51.9</v>
       </c>
       <c r="P25">
-        <v>51.9</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="Q25">
-        <v>0.53500000000000003</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R25">
-        <v>0.34399999999999997</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>8</v>
-      </c>
-      <c r="T25">
         <v>1.34</v>
       </c>
+      <c r="T25" t="s">
+        <v>38</v>
+      </c>
       <c r="U25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s">
         <v>39</v>
       </c>
       <c r="W25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y25" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
         <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>124</v>
       </c>
       <c r="F26">
         <v>43.411216784476601</v>
@@ -3140,78 +2930,75 @@
         <v>-3.45635504550257</v>
       </c>
       <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
         <v>125</v>
       </c>
-      <c r="I26" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26">
+        <v>513</v>
+      </c>
+      <c r="O26">
+        <v>104</v>
+      </c>
+      <c r="P26">
+        <v>0.496</v>
+      </c>
+      <c r="Q26">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="S26">
+        <v>2.79</v>
+      </c>
+      <c r="T26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" t="s">
         <v>126</v>
       </c>
-      <c r="K26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26">
-        <v>513</v>
-      </c>
-      <c r="P26">
-        <v>104</v>
-      </c>
-      <c r="Q26">
-        <v>0.496</v>
-      </c>
-      <c r="R26">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="T26">
-        <v>2.79</v>
-      </c>
-      <c r="U26" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" t="s">
-        <v>38</v>
-      </c>
-      <c r="W26" t="s">
-        <v>40</v>
-      </c>
       <c r="X26" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y26" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27">
         <v>43.438201701304898</v>
@@ -3220,78 +3007,75 @@
         <v>-3.47094471704174</v>
       </c>
       <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
         <v>129</v>
       </c>
-      <c r="I27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" t="s">
-        <v>130</v>
-      </c>
       <c r="K27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27">
+        <v>299</v>
+      </c>
+      <c r="O27">
+        <v>21.8</v>
+      </c>
+      <c r="P27">
+        <v>1.61E-2</v>
+      </c>
+      <c r="Q27">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="S27">
+        <v>5.88</v>
+      </c>
+      <c r="T27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s">
         <v>37</v>
       </c>
-      <c r="O27">
-        <v>299</v>
-      </c>
-      <c r="P27">
-        <v>21.8</v>
-      </c>
-      <c r="Q27">
-        <v>1.61E-2</v>
-      </c>
-      <c r="R27">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="T27">
-        <v>5.88</v>
-      </c>
-      <c r="U27" t="s">
-        <v>39</v>
-      </c>
       <c r="V27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X27" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y27" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28">
         <v>43.437798688429901</v>
@@ -3300,78 +3084,75 @@
         <v>-3.4674037124083998</v>
       </c>
       <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
         <v>132</v>
       </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" t="s">
-        <v>133</v>
-      </c>
       <c r="K28" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>58</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>906</v>
+      </c>
+      <c r="O28">
+        <v>11.9</v>
+      </c>
+      <c r="P28">
+        <v>1.52E-2</v>
+      </c>
+      <c r="Q28">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="S28">
+        <v>3.74</v>
+      </c>
+      <c r="T28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U28" t="s">
         <v>37</v>
       </c>
-      <c r="O28">
-        <v>906</v>
-      </c>
-      <c r="P28">
-        <v>11.9</v>
-      </c>
-      <c r="Q28">
-        <v>1.52E-2</v>
-      </c>
-      <c r="R28">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="T28">
-        <v>3.74</v>
-      </c>
-      <c r="U28" t="s">
-        <v>39</v>
-      </c>
       <c r="V28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X28" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y28" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29">
         <v>43.4208757398766</v>
@@ -3380,78 +3161,75 @@
         <v>-3.47828529185673</v>
       </c>
       <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
         <v>135</v>
       </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>136</v>
-      </c>
       <c r="K29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>204</v>
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>58</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>2276</v>
+      </c>
+      <c r="O29">
+        <v>10.5</v>
+      </c>
+      <c r="P29">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="Q29">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="S29">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="T29" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s">
         <v>37</v>
       </c>
-      <c r="O29">
-        <v>2276</v>
-      </c>
-      <c r="P29">
-        <v>10.5</v>
-      </c>
-      <c r="Q29">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="R29">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="T29">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="U29" t="s">
-        <v>39</v>
-      </c>
       <c r="V29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X29" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y29" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s">
         <v>43</v>
       </c>
-      <c r="AA29" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <v>43.406367086835701</v>
@@ -3460,78 +3238,75 @@
         <v>-3.4584905847101899</v>
       </c>
       <c r="H30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
         <v>138</v>
       </c>
-      <c r="I30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" t="s">
-        <v>139</v>
-      </c>
       <c r="K30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>205</v>
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>58</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30">
+        <v>969</v>
+      </c>
+      <c r="O30">
+        <v>104</v>
+      </c>
+      <c r="P30">
+        <v>1.69</v>
+      </c>
+      <c r="Q30">
+        <v>0.378</v>
+      </c>
+      <c r="S30">
+        <v>2.8</v>
+      </c>
+      <c r="T30" t="s">
+        <v>38</v>
+      </c>
+      <c r="U30" t="s">
         <v>37</v>
       </c>
-      <c r="O30">
-        <v>969</v>
-      </c>
-      <c r="P30">
-        <v>104</v>
-      </c>
-      <c r="Q30">
-        <v>1.69</v>
-      </c>
-      <c r="R30">
-        <v>0.378</v>
-      </c>
-      <c r="T30">
-        <v>2.8</v>
-      </c>
-      <c r="U30" t="s">
-        <v>39</v>
-      </c>
       <c r="V30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X30" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y30" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z30" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>43.516198882299399</v>
@@ -3540,78 +3315,75 @@
         <v>-5.3979510779888802</v>
       </c>
       <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
         <v>141</v>
       </c>
-      <c r="I31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" t="s">
-        <v>142</v>
-      </c>
       <c r="K31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>206</v>
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>58</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>2830</v>
+      </c>
+      <c r="O31">
+        <v>13.2</v>
+      </c>
+      <c r="P31">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="Q31">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="S31">
+        <v>3.54</v>
+      </c>
+      <c r="T31" t="s">
+        <v>38</v>
+      </c>
+      <c r="U31" t="s">
         <v>37</v>
       </c>
-      <c r="O31">
-        <v>2830</v>
-      </c>
-      <c r="P31">
-        <v>13.2</v>
-      </c>
-      <c r="Q31">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="R31">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="T31">
-        <v>3.54</v>
-      </c>
-      <c r="U31" t="s">
-        <v>39</v>
-      </c>
       <c r="V31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X31" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y31" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
         <v>143</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" t="s">
-        <v>144</v>
       </c>
       <c r="F32">
         <v>43.525775332313799</v>
@@ -3620,78 +3392,75 @@
         <v>-7.0186722519353202</v>
       </c>
       <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
         <v>145</v>
       </c>
-      <c r="I32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" t="s">
-        <v>146</v>
-      </c>
       <c r="K32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>207</v>
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>1658</v>
+      </c>
+      <c r="O32">
+        <v>17.5</v>
+      </c>
+      <c r="P32">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q32">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S32">
+        <v>4.7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>38</v>
+      </c>
+      <c r="U32" t="s">
         <v>37</v>
       </c>
-      <c r="O32">
-        <v>1658</v>
-      </c>
-      <c r="P32">
-        <v>17.5</v>
-      </c>
-      <c r="Q32">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R32">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="T32">
-        <v>4.7</v>
-      </c>
-      <c r="U32" t="s">
-        <v>39</v>
-      </c>
       <c r="V32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X32" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y32" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z32" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <v>43.527534669747503</v>
@@ -3700,78 +3469,75 @@
         <v>-7.0193026771607103</v>
       </c>
       <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
         <v>148</v>
       </c>
-      <c r="I33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" t="s">
-        <v>149</v>
-      </c>
       <c r="K33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>208</v>
+        <v>34</v>
+      </c>
+      <c r="L33" t="s">
+        <v>58</v>
       </c>
       <c r="M33" t="s">
         <v>59</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33">
+        <v>368</v>
+      </c>
+      <c r="O33">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="P33">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="S33">
+        <v>2.08</v>
+      </c>
+      <c r="T33" t="s">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" t="s">
+        <v>126</v>
+      </c>
+      <c r="X33" t="s">
         <v>60</v>
       </c>
-      <c r="O33">
-        <v>368</v>
-      </c>
-      <c r="P33">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="Q33">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="R33">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="T33">
-        <v>2.08</v>
-      </c>
-      <c r="U33" t="s">
-        <v>39</v>
-      </c>
-      <c r="V33" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" t="s">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s">
-        <v>127</v>
-      </c>
       <c r="Y33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
         <v>150</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>151</v>
       </c>
       <c r="F34">
         <v>43.711671680935197</v>
@@ -3780,78 +3546,75 @@
         <v>-7.8665303556387602</v>
       </c>
       <c r="H34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
         <v>152</v>
       </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" t="s">
-        <v>153</v>
-      </c>
       <c r="K34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>209</v>
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>58</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>1112</v>
+      </c>
+      <c r="O34">
+        <v>20.6</v>
+      </c>
+      <c r="P34">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q34">
+        <v>0.373</v>
+      </c>
+      <c r="S34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T34" t="s">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s">
         <v>37</v>
       </c>
-      <c r="O34">
-        <v>1112</v>
-      </c>
-      <c r="P34">
-        <v>20.6</v>
-      </c>
-      <c r="Q34">
-        <v>4.7E-2</v>
-      </c>
-      <c r="R34">
-        <v>0.373</v>
-      </c>
-      <c r="T34">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="U34" t="s">
-        <v>39</v>
-      </c>
       <c r="V34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X34" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y34" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F35">
         <v>43.712598946707502</v>
@@ -3860,78 +3623,75 @@
         <v>-7.8672858569733002</v>
       </c>
       <c r="H35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
         <v>155</v>
       </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>156</v>
-      </c>
       <c r="K35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>210</v>
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>168</v>
+      </c>
+      <c r="O35">
+        <v>105</v>
+      </c>
+      <c r="P35">
+        <v>0.223</v>
+      </c>
+      <c r="Q35">
+        <v>0.379</v>
+      </c>
+      <c r="S35">
+        <v>2.82</v>
+      </c>
+      <c r="T35" t="s">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s">
         <v>37</v>
       </c>
-      <c r="O35">
-        <v>168</v>
-      </c>
-      <c r="P35">
-        <v>105</v>
-      </c>
-      <c r="Q35">
-        <v>0.223</v>
-      </c>
-      <c r="R35">
-        <v>0.379</v>
-      </c>
-      <c r="T35">
-        <v>2.82</v>
-      </c>
-      <c r="U35" t="s">
-        <v>39</v>
-      </c>
       <c r="V35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X35" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y35" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="s">
         <v>43</v>
       </c>
-      <c r="AA35" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36">
         <v>43.704005642936302</v>
@@ -3940,78 +3700,75 @@
         <v>-7.8752594956175903</v>
       </c>
       <c r="H36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
         <v>158</v>
       </c>
-      <c r="I36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" t="s">
-        <v>159</v>
-      </c>
       <c r="K36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>211</v>
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>58</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36">
+        <v>1452</v>
+      </c>
+      <c r="O36">
+        <v>15.7</v>
+      </c>
+      <c r="P36">
+        <v>1.54E-2</v>
+      </c>
+      <c r="Q36">
+        <v>2.13</v>
+      </c>
+      <c r="S36">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="T36" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s">
         <v>37</v>
       </c>
-      <c r="O36">
-        <v>1452</v>
-      </c>
-      <c r="P36">
-        <v>15.7</v>
-      </c>
-      <c r="Q36">
-        <v>1.54E-2</v>
-      </c>
-      <c r="R36">
-        <v>2.13</v>
-      </c>
-      <c r="T36">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="U36" t="s">
-        <v>39</v>
-      </c>
       <c r="V36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X36" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y36" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s">
         <v>43</v>
       </c>
-      <c r="AA36" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37">
         <v>43.698429786618298</v>
@@ -4020,78 +3777,75 @@
         <v>-7.8769243358526797</v>
       </c>
       <c r="H37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
         <v>161</v>
       </c>
-      <c r="I37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" t="s">
-        <v>162</v>
-      </c>
       <c r="K37" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>212</v>
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>58</v>
       </c>
       <c r="M37" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>751</v>
+      </c>
+      <c r="O37">
+        <v>129</v>
+      </c>
+      <c r="P37">
+        <v>1.05</v>
+      </c>
+      <c r="Q37">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="S37">
+        <v>3.45</v>
+      </c>
+      <c r="T37" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s">
         <v>37</v>
       </c>
-      <c r="O37">
-        <v>751</v>
-      </c>
-      <c r="P37">
-        <v>129</v>
-      </c>
-      <c r="Q37">
-        <v>1.05</v>
-      </c>
-      <c r="R37">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="T37">
-        <v>3.45</v>
-      </c>
-      <c r="U37" t="s">
-        <v>39</v>
-      </c>
       <c r="V37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X37" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y37" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s">
         <v>43</v>
       </c>
-      <c r="AA37" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
         <v>163</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" t="s">
-        <v>164</v>
       </c>
       <c r="F38">
         <v>43.713458798067499</v>
@@ -4100,78 +3854,75 @@
         <v>-7.6974186941587801</v>
       </c>
       <c r="H38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
         <v>165</v>
       </c>
-      <c r="I38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>1448</v>
+      </c>
+      <c r="O38">
+        <v>14.3</v>
+      </c>
+      <c r="P38">
+        <v>2.23E-2</v>
+      </c>
+      <c r="Q38">
+        <v>0.372</v>
+      </c>
+      <c r="S38">
+        <v>3.85</v>
+      </c>
+      <c r="T38" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" t="s">
         <v>166</v>
       </c>
-      <c r="K38" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M38" t="s">
-        <v>59</v>
-      </c>
-      <c r="N38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38">
-        <v>1448</v>
-      </c>
-      <c r="P38">
-        <v>14.3</v>
-      </c>
-      <c r="Q38">
-        <v>2.23E-2</v>
-      </c>
-      <c r="R38">
-        <v>0.372</v>
-      </c>
-      <c r="T38">
-        <v>3.85</v>
-      </c>
-      <c r="U38" t="s">
-        <v>39</v>
-      </c>
-      <c r="V38" t="s">
-        <v>38</v>
-      </c>
       <c r="W38" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="X38" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y38" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s">
         <v>43</v>
       </c>
-      <c r="AA38" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39">
         <v>43.711909895868303</v>
@@ -4180,78 +3931,75 @@
         <v>-7.6963090640861802</v>
       </c>
       <c r="H39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
         <v>169</v>
       </c>
-      <c r="I39" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" t="s">
-        <v>170</v>
-      </c>
       <c r="K39" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>214</v>
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>58</v>
       </c>
       <c r="M39" t="s">
-        <v>59</v>
-      </c>
-      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39">
+        <v>236</v>
+      </c>
+      <c r="O39">
+        <v>105</v>
+      </c>
+      <c r="P39">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Q39">
+        <v>0.371</v>
+      </c>
+      <c r="S39">
+        <v>2.82</v>
+      </c>
+      <c r="T39" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s">
         <v>37</v>
       </c>
-      <c r="O39">
-        <v>236</v>
-      </c>
-      <c r="P39">
-        <v>105</v>
-      </c>
-      <c r="Q39">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="R39">
-        <v>0.371</v>
-      </c>
-      <c r="T39">
-        <v>2.82</v>
-      </c>
-      <c r="U39" t="s">
-        <v>39</v>
-      </c>
       <c r="V39" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="W39" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="X39" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y39" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z39" t="s">
         <v>43</v>
       </c>
-      <c r="AA39" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40">
         <v>43.735616599706297</v>
@@ -4260,78 +4008,75 @@
         <v>-7.6762260473486696</v>
       </c>
       <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
         <v>172</v>
       </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" t="s">
-        <v>173</v>
-      </c>
       <c r="K40" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>215</v>
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>58</v>
       </c>
       <c r="M40" t="s">
-        <v>59</v>
-      </c>
-      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>260</v>
+      </c>
+      <c r="O40">
+        <v>112</v>
+      </c>
+      <c r="P40">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S40">
+        <v>3.02</v>
+      </c>
+      <c r="T40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s">
         <v>37</v>
       </c>
-      <c r="O40">
-        <v>260</v>
-      </c>
-      <c r="P40">
-        <v>112</v>
-      </c>
-      <c r="Q40">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="R40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T40">
-        <v>3.02</v>
-      </c>
-      <c r="U40" t="s">
-        <v>39</v>
-      </c>
       <c r="V40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W40" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="X40" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y40" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z40" t="s">
         <v>43</v>
       </c>
-      <c r="AA40" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41">
         <v>43.736062862386298</v>
@@ -4340,106 +4085,61 @@
         <v>-7.6740555083839999</v>
       </c>
       <c r="H41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
         <v>175</v>
       </c>
-      <c r="I41" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" t="s">
-        <v>176</v>
-      </c>
       <c r="K41" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>216</v>
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>58</v>
       </c>
       <c r="M41" t="s">
-        <v>59</v>
-      </c>
-      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41">
+        <v>773</v>
+      </c>
+      <c r="O41">
+        <v>23.1</v>
+      </c>
+      <c r="P41">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q41">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="S41">
+        <v>7.03</v>
+      </c>
+      <c r="T41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" t="s">
         <v>37</v>
       </c>
-      <c r="O41">
-        <v>773</v>
-      </c>
-      <c r="P41">
-        <v>23.1</v>
-      </c>
-      <c r="Q41">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="R41">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="T41">
-        <v>7.03</v>
-      </c>
-      <c r="U41" t="s">
-        <v>39</v>
-      </c>
       <c r="V41" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="W41" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="X41" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="Y41" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s">
         <v>43</v>
       </c>
-      <c r="AA41" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{0C703106-1F3D-D741-9D75-18F946F06EC1}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{26D9C286-1CF3-C542-A239-B5029F1B89B9}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{AB23FE51-593B-4F44-8C70-12EEF983DDCC}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{8E28D14A-EC05-E545-B474-F45627E87EE4}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{F389D374-61F9-4D42-9169-A70798F84AC2}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{E58D0491-980F-8E49-813C-26BD5062FDB7}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{0CA98A26-3478-164C-984F-B2C618488190}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{D8E38070-11A4-1148-9333-8A0EA5320B6C}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{AE76DFD2-3070-EA4F-B0F8-6CD3CB8B807D}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{C553FFAE-BAD1-6840-859E-0920EDBC286B}"/>
-    <hyperlink ref="L12" r:id="rId11" xr:uid="{AFE688D0-6F18-8B46-AB64-E6D9745989D6}"/>
-    <hyperlink ref="L13" r:id="rId12" xr:uid="{2BF07AFB-A28D-4E40-88F3-DFECF9BAD94D}"/>
-    <hyperlink ref="L14" r:id="rId13" xr:uid="{374ED9FE-D730-CD46-82F9-5DFBF522A483}"/>
-    <hyperlink ref="L15" r:id="rId14" xr:uid="{E78515DC-C6B0-0B46-A1AA-790A00D210F1}"/>
-    <hyperlink ref="L16" r:id="rId15" xr:uid="{A5305E56-50EE-4944-8828-016EE360B506}"/>
-    <hyperlink ref="L17" r:id="rId16" xr:uid="{A7DFE5DE-D5D8-DF43-80AB-1130A15881F8}"/>
-    <hyperlink ref="L18" r:id="rId17" xr:uid="{45EA0544-F364-234E-8C55-7A75AB92BEF8}"/>
-    <hyperlink ref="L19" r:id="rId18" xr:uid="{BBF694A8-4C85-5647-88E1-442D991CAD2D}"/>
-    <hyperlink ref="L20" r:id="rId19" xr:uid="{274727F4-241F-AF49-95C0-115215646BEA}"/>
-    <hyperlink ref="L21" r:id="rId20" xr:uid="{AF93DA04-CD28-DF41-A06A-C3D17F89D40E}"/>
-    <hyperlink ref="L22" r:id="rId21" xr:uid="{03D740C6-92B4-6C40-8546-B16B56E213EF}"/>
-    <hyperlink ref="L23" r:id="rId22" xr:uid="{A7B0DA48-49EE-BC4D-BCF1-56CED67811EA}"/>
-    <hyperlink ref="L24" r:id="rId23" xr:uid="{1CEB608C-8A3B-F244-8B4D-6CA1929F8857}"/>
-    <hyperlink ref="L25" r:id="rId24" xr:uid="{66EB02D7-89A6-CB40-A328-4512D77C6F90}"/>
-    <hyperlink ref="L26" r:id="rId25" xr:uid="{0F68077C-8A82-5B43-8A97-C4FCFE57391A}"/>
-    <hyperlink ref="L27" r:id="rId26" xr:uid="{1BDA6E00-0328-A142-9693-4F26228D16B1}"/>
-    <hyperlink ref="L28" r:id="rId27" xr:uid="{1F76901E-FD09-944C-8070-94D711BA59AA}"/>
-    <hyperlink ref="L29" r:id="rId28" xr:uid="{F87AED70-46C2-B04E-80CD-111C5C7640BB}"/>
-    <hyperlink ref="L30" r:id="rId29" xr:uid="{19CBB91D-F077-7149-8578-76C1EA49D1B0}"/>
-    <hyperlink ref="L31" r:id="rId30" xr:uid="{C2011D54-6AAD-DA44-9D46-03100C53E729}"/>
-    <hyperlink ref="L32" r:id="rId31" xr:uid="{041383AE-615F-AE47-B089-59319F68E1C7}"/>
-    <hyperlink ref="L33" r:id="rId32" xr:uid="{B3994130-241B-3240-86C5-A7D51F98A6A4}"/>
-    <hyperlink ref="L34" r:id="rId33" xr:uid="{F79B6914-F6ED-C545-B04E-A2AEA6A76F92}"/>
-    <hyperlink ref="L35" r:id="rId34" xr:uid="{8BAA0A34-C6CB-DD4E-8587-7A43B85A982F}"/>
-    <hyperlink ref="L36" r:id="rId35" xr:uid="{D5881ECB-052B-8E40-90DE-21551913D663}"/>
-    <hyperlink ref="L37" r:id="rId36" xr:uid="{61D322F0-E408-ED4A-8230-76389EF7A3C5}"/>
-    <hyperlink ref="L38" r:id="rId37" xr:uid="{588E0267-138F-DE43-984B-B89A3E6E9446}"/>
-    <hyperlink ref="L39" r:id="rId38" xr:uid="{BBA3A4D5-7FEC-CF46-B548-E6FA4AF70F19}"/>
-    <hyperlink ref="L40" r:id="rId39" xr:uid="{031CB7F6-A41B-E441-A238-4A169CDC8F97}"/>
-    <hyperlink ref="L41" r:id="rId40" xr:uid="{50B00313-D27F-4D41-9B76-1263DAF77D03}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>